--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration-coarse-loadable.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration-coarse-loadable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3339614E-8ABE-446C-9FD3-AC5317AA5AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1146EC8-089A-4D51-B60B-6A1DAD16D74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="91770" yWindow="2190" windowWidth="22260" windowHeight="20805" activeTab="2" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
+    <workbookView xWindow="61260" yWindow="1800" windowWidth="22695" windowHeight="22200" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -40,9 +40,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
   <si>
-    <t>Сведения о переселенцах внутри России</t>
-  </si>
-  <si>
     <t>ЦСК, "Ежегодник России" 1916</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
   </si>
   <si>
     <t>Страница "направления":</t>
-  </si>
-  <si>
-    <t>Распределение прямых переселенцев по направления миграции и обратных по губерниям временного водворения</t>
   </si>
   <si>
     <t>стр. I/104-109</t>
@@ -366,6 +360,12 @@
   <si>
     <t>прибытие
 1896-1910</t>
+  </si>
+  <si>
+    <t>Сведения о крестьянах-переселенцах и ходоках внутри России</t>
+  </si>
+  <si>
+    <t>Распределение прямых переселенцев по направлениям миграции и обратных по губерниям временного водворения</t>
   </si>
 </sst>
 </file>
@@ -786,50 +786,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3D8DA3-C95A-4A72-832D-39A8124B8B93}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -860,31 +860,31 @@
   <sheetData>
     <row r="1" spans="1:8" ht="43.2">
       <c r="A1" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>1757</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>47824</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>42667</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>160611</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>1700</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>16974</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>59422</v>
@@ -1045,7 +1045,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>212332</v>
@@ -1068,7 +1068,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>94489</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>30721</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2">
         <v>45685</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2">
         <v>176862</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2">
         <v>26815</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>30926</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2">
         <v>204627</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2">
         <v>3938</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="2">
         <v>20538</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2">
         <v>4147</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2">
         <v>253491</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2">
         <v>16775</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2">
         <v>99757</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2">
         <v>233961</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>518</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2">
         <v>14989</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2">
         <v>3908</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2">
         <v>17725</v>
@@ -1483,7 +1483,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2">
         <v>162055</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2">
         <v>77482</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2">
         <v>38410</v>
@@ -1552,7 +1552,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2">
         <v>3553</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2">
         <v>76452</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2">
         <v>367635</v>
@@ -1621,7 +1621,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="2">
         <v>24273</v>
@@ -1644,7 +1644,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2">
         <v>48700</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>147019</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>89973</v>
@@ -1713,7 +1713,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="2">
         <v>45313</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2">
         <v>68938</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="2">
         <v>103859</v>
@@ -1782,7 +1782,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2">
         <v>164487</v>
@@ -1805,7 +1805,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>4195</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
         <v>37883</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="2">
         <v>31999</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2">
         <v>195752</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="2">
         <v>119713</v>
@@ -1920,10 +1920,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47">
         <v>843</v>
@@ -1932,18 +1932,18 @@
         <v>65</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G47">
         <v>235</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="2">
         <v>296462</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="2">
         <v>4389</v>
@@ -1975,7 +1975,7 @@
         <v>716</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49">
@@ -1985,12 +1985,12 @@
         <v>221</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="2">
         <v>7171</v>
@@ -1999,7 +1999,7 @@
         <v>609</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="2">
@@ -2009,12 +2009,12 @@
         <v>387</v>
       </c>
       <c r="H50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="2">
         <v>4494</v>
@@ -2023,7 +2023,7 @@
         <v>1352</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="2">
@@ -2038,7 +2038,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>67</v>
@@ -2047,7 +2047,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52">
@@ -2057,25 +2057,25 @@
         <v>3</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -2095,7 +2095,7 @@
         <v>6</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54">
@@ -2105,12 +2105,12 @@
         <v>7</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>352</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>841</v>
@@ -2142,7 +2142,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56">
@@ -2152,12 +2152,12 @@
         <v>8</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B57" s="2">
         <v>10836</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>85</v>
@@ -2189,7 +2189,7 @@
         <v>16</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58">
@@ -2199,12 +2199,12 @@
         <v>25</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="2">
         <v>17963</v>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="2">
         <v>2188</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61">
         <v>43</v>
@@ -2259,7 +2259,7 @@
         <v>44</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61">
@@ -2269,36 +2269,36 @@
         <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62">
         <v>25</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63">
         <v>594</v>
@@ -2307,7 +2307,7 @@
         <v>70</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63">
@@ -2317,12 +2317,12 @@
         <v>146</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>26</v>
@@ -2331,7 +2331,7 @@
         <v>18</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64">
@@ -2341,12 +2341,12 @@
         <v>8</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65">
         <v>67</v>
@@ -2355,7 +2355,7 @@
         <v>566</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65">
@@ -2370,7 +2370,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2">
         <v>1404</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
         <v>4464</v>
@@ -2402,7 +2402,7 @@
         <v>116</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67">
@@ -2412,7 +2412,7 @@
         <v>734</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2423,7 +2423,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2">
         <v>3982348</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="4">
         <f>SUM(B2:B67)</f>
@@ -2537,7 +2537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78787F9-C6E2-4455-9C98-EC045ED3CD33}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
@@ -2560,31 +2560,31 @@
   <sheetData>
     <row r="1" spans="1:16" ht="43.2">
       <c r="A1" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="11">
         <v>99591</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="11">
         <v>8716</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="11">
         <v>28988</v>
@@ -2641,7 +2641,7 @@
         <v>20017</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="11">
@@ -2651,36 +2651,36 @@
         <v>5843</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="11">
         <v>901</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="11">
         <v>618</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="11">
         <v>38364</v>
@@ -2689,7 +2689,7 @@
         <v>11164</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="11">
@@ -2699,12 +2699,12 @@
         <v>4375</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="11">
         <v>175659</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="11">
         <v>119427</v>
@@ -2785,7 +2785,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" s="11">
         <v>402078</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B12" s="11">
         <v>14859</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="11">
         <v>116377</v>
@@ -2857,31 +2857,31 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="11">
         <v>12</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" s="11">
         <v>1</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="11">
         <v>198827</v>
@@ -2905,20 +2905,20 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="11">
         <v>6</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G16" s="11">
         <v>7</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="11">
         <v>279211</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" s="11">
         <v>1600568</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B19" s="11">
         <v>129</v>
@@ -2996,36 +2996,36 @@
         <v>1</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="11">
         <v>5</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="11">
         <v>2731476</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B23" s="11">
         <v>646679</v>
@@ -3106,31 +3106,31 @@
     </row>
     <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="11">
         <v>37</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B25" s="11">
         <v>99289</v>
@@ -3154,7 +3154,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B26" s="11">
         <v>26291</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B27" s="11">
         <v>13016</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="11">
         <v>247636</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B29" s="11">
         <v>29272</v>
@@ -3250,7 +3250,7 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="11">
         <v>1787</v>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31" s="11">
         <v>538</v>
@@ -3283,7 +3283,7 @@
         <v>980</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="7"/>
       <c r="F31" s="11">
@@ -3293,12 +3293,12 @@
         <v>471</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="11">
         <v>1064508</v>
@@ -3355,7 +3355,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2">
         <v>10705</v>
@@ -3379,7 +3379,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" s="13">
         <v>0</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="11">
         <v>3982348</v>

--- a/rtss-pre1917/src/main/resources/inner-migration/inner-migration-coarse-loadable.xlsx
+++ b/rtss-pre1917/src/main/resources/inner-migration/inner-migration-coarse-loadable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\inner-migration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1146EC8-089A-4D51-B60B-6A1DAD16D74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43349B6E-C5C3-43E4-B50B-67DF772CDE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61260" yWindow="1800" windowWidth="22695" windowHeight="22200" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
+    <workbookView xWindow="82680" yWindow="1410" windowWidth="22695" windowHeight="22200" xr2:uid="{27B0BCBD-45BA-4A2C-A6C0-E9ECF67712F3}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="108">
   <si>
     <t>ЦСК, "Ежегодник России" 1916</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>Распределение прямых переселенцев по направлениям миграции и обратных по губерниям временного водворения</t>
+  </si>
+  <si>
+    <t>Исправленные опечатки помечены синим цветом</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -468,6 +471,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -784,10 +790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B3D8DA3-C95A-4A72-832D-39A8124B8B93}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -830,6 +836,11 @@
     <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2549,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2800,8 +2811,8 @@
       <c r="F11" s="11">
         <v>87789</v>
       </c>
-      <c r="G11" s="11">
-        <v>37686</v>
+      <c r="G11" s="17">
+        <v>35686</v>
       </c>
       <c r="H11" s="11">
         <v>671</v>
@@ -2848,8 +2859,8 @@
       <c r="F13" s="11">
         <v>27547</v>
       </c>
-      <c r="G13" s="11">
-        <v>9855</v>
+      <c r="G13" s="17">
+        <v>19855</v>
       </c>
       <c r="H13" s="11">
         <v>310</v>
@@ -3064,7 +3075,7 @@
       </c>
       <c r="O21" s="10">
         <f>SUM(G10:G20) -G21</f>
-        <v>-8000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="10">
         <f>SUM(H10:H20) -H21</f>
